--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H2">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I2">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J2">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>5069.399669181839</v>
+        <v>5208.127051216881</v>
       </c>
       <c r="R2">
-        <v>5069.399669181839</v>
+        <v>20832.50820486752</v>
       </c>
       <c r="S2">
-        <v>0.009769960891534663</v>
+        <v>0.008252597293475838</v>
       </c>
       <c r="T2">
-        <v>0.009769960891534663</v>
+        <v>0.004420937101125501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H3">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I3">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J3">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>3430.626492422635</v>
+        <v>3758.354403966096</v>
       </c>
       <c r="R3">
-        <v>3430.626492422635</v>
+        <v>22550.12642379658</v>
       </c>
       <c r="S3">
-        <v>0.006611648094781461</v>
+        <v>0.005955343461685838</v>
       </c>
       <c r="T3">
-        <v>0.006611648094781461</v>
+        <v>0.00478543867889799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H4">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I4">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J4">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>2588.161838504234</v>
+        <v>2675.054523668274</v>
       </c>
       <c r="R4">
-        <v>2588.161838504234</v>
+        <v>16050.32714200965</v>
       </c>
       <c r="S4">
-        <v>0.004988014674966399</v>
+        <v>0.004238788244762001</v>
       </c>
       <c r="T4">
-        <v>0.004988014674966399</v>
+        <v>0.00340609426620712</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H5">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I5">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J5">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>2433.517327946239</v>
+        <v>2520.11016364987</v>
       </c>
       <c r="R5">
-        <v>2433.517327946239</v>
+        <v>15120.66098189922</v>
       </c>
       <c r="S5">
-        <v>0.004689977250648269</v>
+        <v>0.003993269386724837</v>
       </c>
       <c r="T5">
-        <v>0.004689977250648269</v>
+        <v>0.003208806662694609</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H6">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I6">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J6">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>3575.510037650944</v>
+        <v>3852.308447622888</v>
       </c>
       <c r="R6">
-        <v>3575.510037650944</v>
+        <v>23113.85068573732</v>
       </c>
       <c r="S6">
-        <v>0.00689087377495671</v>
+        <v>0.006104219416279148</v>
       </c>
       <c r="T6">
-        <v>0.00689087377495671</v>
+        <v>0.004905068513189195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H7">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I7">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J7">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>4299.05616568292</v>
+        <v>4427.464465885989</v>
       </c>
       <c r="R7">
-        <v>4299.05616568292</v>
+        <v>17709.85786354396</v>
       </c>
       <c r="S7">
-        <v>0.008285322395188427</v>
+        <v>0.007015589464084603</v>
       </c>
       <c r="T7">
-        <v>0.008285322395188427</v>
+        <v>0.003758268899484087</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H8">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J8">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>12462.8959824856</v>
+        <v>13697.34550935251</v>
       </c>
       <c r="R8">
-        <v>12462.8959824856</v>
+        <v>82184.07305611507</v>
       </c>
       <c r="S8">
-        <v>0.02401901887601618</v>
+        <v>0.02170428550737341</v>
       </c>
       <c r="T8">
-        <v>0.02401901887601618</v>
+        <v>0.01744056040311533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H9">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J9">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>8434.044249804263</v>
+        <v>9884.451418229522</v>
       </c>
       <c r="R9">
-        <v>8434.044249804263</v>
+        <v>88960.0627640657</v>
       </c>
       <c r="S9">
-        <v>0.01625444586249385</v>
+        <v>0.0156625205605372</v>
       </c>
       <c r="T9">
-        <v>0.01625444586249385</v>
+        <v>0.01887851612127145</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H10">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J10">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>6362.881975001752</v>
+        <v>7035.37868925059</v>
       </c>
       <c r="R10">
-        <v>6362.881975001752</v>
+        <v>63318.40820325531</v>
       </c>
       <c r="S10">
-        <v>0.01226281455595923</v>
+        <v>0.01114798977799922</v>
       </c>
       <c r="T10">
-        <v>0.01226281455595923</v>
+        <v>0.01343701378908257</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H11">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J11">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>5982.695251697343</v>
+        <v>6627.875874317973</v>
       </c>
       <c r="R11">
-        <v>5982.695251697343</v>
+        <v>59650.88286886176</v>
       </c>
       <c r="S11">
-        <v>0.01153010266489536</v>
+        <v>0.01050227653127438</v>
       </c>
       <c r="T11">
-        <v>0.01153010266489536</v>
+        <v>0.01265871582031711</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H12">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J12">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>8790.234069425565</v>
+        <v>10131.55003646833</v>
       </c>
       <c r="R12">
-        <v>8790.234069425565</v>
+        <v>91183.95032821501</v>
       </c>
       <c r="S12">
-        <v>0.016940909908487</v>
+        <v>0.01605406350256715</v>
       </c>
       <c r="T12">
-        <v>0.016940909908487</v>
+        <v>0.0193504548309263</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H13">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J13">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>10569.04038193872</v>
+        <v>11644.20720217485</v>
       </c>
       <c r="R13">
-        <v>10569.04038193872</v>
+        <v>69865.24321304911</v>
       </c>
       <c r="S13">
-        <v>0.02036910047166532</v>
+        <v>0.01845096171739655</v>
       </c>
       <c r="T13">
-        <v>0.02036910047166532</v>
+        <v>0.01482633981286794</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H14">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I14">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J14">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>65133.421135763</v>
+        <v>86333.43255900146</v>
       </c>
       <c r="R14">
-        <v>65133.421135763</v>
+        <v>518000.5953540088</v>
       </c>
       <c r="S14">
-        <v>0.1255278768207604</v>
+        <v>0.1368006281080305</v>
       </c>
       <c r="T14">
-        <v>0.1255278768207604</v>
+        <v>0.1099266601930613</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H15">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I15">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J15">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>44077.8898236942</v>
+        <v>62301.02170641558</v>
       </c>
       <c r="R15">
-        <v>44077.8898236942</v>
+        <v>560709.1953577403</v>
       </c>
       <c r="S15">
-        <v>0.08494876866324641</v>
+        <v>0.09871979659079445</v>
       </c>
       <c r="T15">
-        <v>0.08494876866324641</v>
+        <v>0.1189899968031729</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H16">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I16">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J16">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>33253.60910476679</v>
+        <v>44343.51102414177</v>
       </c>
       <c r="R16">
-        <v>33253.60910476679</v>
+        <v>399091.5992172759</v>
       </c>
       <c r="S16">
-        <v>0.06408775824700097</v>
+        <v>0.07026501762769866</v>
       </c>
       <c r="T16">
-        <v>0.06408775824700097</v>
+        <v>0.08469257951929765</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H17">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I17">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J17">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>31266.6823107045</v>
+        <v>41775.0486336321</v>
       </c>
       <c r="R17">
-        <v>31266.6823107045</v>
+        <v>375975.437702689</v>
       </c>
       <c r="S17">
-        <v>0.06025846911236389</v>
+        <v>0.06619513116681404</v>
       </c>
       <c r="T17">
-        <v>0.06025846911236389</v>
+        <v>0.07978702061729426</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H18">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I18">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J18">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>45939.40431906262</v>
+        <v>63858.46740847346</v>
       </c>
       <c r="R18">
-        <v>45939.40431906262</v>
+        <v>574726.2066762612</v>
       </c>
       <c r="S18">
-        <v>0.08853635792541038</v>
+        <v>0.1011876649932243</v>
       </c>
       <c r="T18">
-        <v>0.08853635792541038</v>
+        <v>0.121964594234051</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H19">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I19">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J19">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>55235.77819835144</v>
+        <v>73392.64213679913</v>
       </c>
       <c r="R19">
-        <v>55235.77819835144</v>
+        <v>440355.8528207948</v>
       </c>
       <c r="S19">
-        <v>0.1064527218266205</v>
+        <v>0.1162951506180464</v>
       </c>
       <c r="T19">
-        <v>0.1064527218266205</v>
+        <v>0.09344940648953375</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H20">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I20">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J20">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>29216.35150676821</v>
+        <v>29867.70330958701</v>
       </c>
       <c r="R20">
-        <v>29216.35150676821</v>
+        <v>179206.2198575221</v>
       </c>
       <c r="S20">
-        <v>0.05630698509524372</v>
+        <v>0.04732721092843645</v>
       </c>
       <c r="T20">
-        <v>0.05630698509524372</v>
+        <v>0.03802995867465738</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H21">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I21">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J21">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>19771.64872211139</v>
+        <v>21553.50919169897</v>
       </c>
       <c r="R21">
-        <v>19771.64872211139</v>
+        <v>193981.5827252907</v>
       </c>
       <c r="S21">
-        <v>0.03810475547045698</v>
+        <v>0.03415285953493809</v>
       </c>
       <c r="T21">
-        <v>0.03810475547045698</v>
+        <v>0.0411654884554376</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H22">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I22">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J22">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>14916.29205916351</v>
+        <v>15340.97268829578</v>
       </c>
       <c r="R22">
-        <v>14916.29205916351</v>
+        <v>138068.7541946621</v>
       </c>
       <c r="S22">
-        <v>0.02874730728979126</v>
+        <v>0.02430871375481052</v>
       </c>
       <c r="T22">
-        <v>0.02874730728979126</v>
+        <v>0.02930003780258874</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H23">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I23">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J23">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>14025.03300012315</v>
+        <v>14452.39371758073</v>
       </c>
       <c r="R23">
-        <v>14025.03300012315</v>
+        <v>130071.5434582266</v>
       </c>
       <c r="S23">
-        <v>0.02702963523406723</v>
+        <v>0.02290070578253011</v>
       </c>
       <c r="T23">
-        <v>0.02702963523406723</v>
+        <v>0.0276029226351522</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H24">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I24">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J24">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>20606.65263996587</v>
+        <v>22092.31930003174</v>
       </c>
       <c r="R24">
-        <v>20606.65263996587</v>
+        <v>198830.8737002857</v>
       </c>
       <c r="S24">
-        <v>0.03971401024500372</v>
+        <v>0.03500663725541164</v>
       </c>
       <c r="T24">
-        <v>0.03971401024500372</v>
+        <v>0.0421945729120322</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H25">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I25">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J25">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>24776.64896841772</v>
+        <v>25390.73908535398</v>
       </c>
       <c r="R25">
-        <v>24776.64896841772</v>
+        <v>152344.4345121239</v>
       </c>
       <c r="S25">
-        <v>0.04775060307758128</v>
+        <v>0.04023318605604763</v>
       </c>
       <c r="T25">
-        <v>0.04775060307758128</v>
+        <v>0.03232952825753684</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H26">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I26">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J26">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>2521.306701631338</v>
+        <v>2599.790002484457</v>
       </c>
       <c r="R26">
-        <v>2521.306701631338</v>
+        <v>15598.74001490674</v>
       </c>
       <c r="S26">
-        <v>0.004859168634947657</v>
+        <v>0.004119526986788043</v>
       </c>
       <c r="T26">
-        <v>0.004859168634947657</v>
+        <v>0.003310261432975189</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H27">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I27">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J27">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>1706.249680553434</v>
+        <v>1876.093288265981</v>
       </c>
       <c r="R27">
-        <v>1706.249680553434</v>
+        <v>16884.83959439383</v>
       </c>
       <c r="S27">
-        <v>0.003288356361314666</v>
+        <v>0.002972785080086419</v>
       </c>
       <c r="T27">
-        <v>0.003288356361314666</v>
+        <v>0.003583188979230416</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H28">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I28">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J28">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>1287.243108488304</v>
+        <v>1335.332248684037</v>
       </c>
       <c r="R28">
-        <v>1287.243108488304</v>
+        <v>12017.99023815634</v>
       </c>
       <c r="S28">
-        <v>0.002480829220130903</v>
+        <v>0.0021159159891858</v>
       </c>
       <c r="T28">
-        <v>0.002480829220130903</v>
+        <v>0.002550378399102965</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H29">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I29">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J29">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>1210.329417265513</v>
+        <v>1257.98720810499</v>
       </c>
       <c r="R29">
-        <v>1210.329417265513</v>
+        <v>11321.88487294492</v>
       </c>
       <c r="S29">
-        <v>0.002332597909855949</v>
+        <v>0.001993358020405587</v>
       </c>
       <c r="T29">
-        <v>0.002332597909855949</v>
+        <v>0.002402655522669074</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H30">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I30">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J30">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>1778.30867715632</v>
+        <v>1922.993216203577</v>
       </c>
       <c r="R30">
-        <v>1778.30867715632</v>
+        <v>17306.9389458322</v>
       </c>
       <c r="S30">
-        <v>0.003427231499326234</v>
+        <v>0.003047100897376549</v>
       </c>
       <c r="T30">
-        <v>0.003427231499326234</v>
+        <v>0.00367276411174849</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H31">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I31">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J31">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>2138.170163840177</v>
+        <v>2210.099281674811</v>
       </c>
       <c r="R31">
-        <v>2138.170163840177</v>
+        <v>13260.59569004887</v>
       </c>
       <c r="S31">
-        <v>0.004120771736969053</v>
+        <v>0.003502038097553875</v>
       </c>
       <c r="T31">
-        <v>0.004120771736969053</v>
+        <v>0.002814075909278383</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H32">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I32">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J32">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>8533.491219989271</v>
+        <v>8754.661160441043</v>
       </c>
       <c r="R32">
-        <v>8533.491219989271</v>
+        <v>35018.64464176417</v>
       </c>
       <c r="S32">
-        <v>0.01644610425853544</v>
+        <v>0.01387229848416867</v>
       </c>
       <c r="T32">
-        <v>0.01644610425853544</v>
+        <v>0.007431425146000053</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H33">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I33">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J33">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>5774.889131374393</v>
+        <v>6317.6491287567</v>
       </c>
       <c r="R33">
-        <v>5774.889131374393</v>
+        <v>37905.8947725402</v>
       </c>
       <c r="S33">
-        <v>0.0111296099436528</v>
+        <v>0.01001070319298867</v>
       </c>
       <c r="T33">
-        <v>0.0111296099436528</v>
+        <v>0.008044138271940154</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H34">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I34">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J34">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>4356.74000198759</v>
+        <v>4496.663716171987</v>
       </c>
       <c r="R34">
-        <v>4356.74000198759</v>
+        <v>26979.98229703193</v>
       </c>
       <c r="S34">
-        <v>0.008396493117867167</v>
+        <v>0.007125239927678296</v>
       </c>
       <c r="T34">
-        <v>0.008396493117867167</v>
+        <v>0.005725513392419476</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H35">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I35">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J35">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>4096.421688344119</v>
+        <v>4236.208209356812</v>
       </c>
       <c r="R35">
-        <v>4096.421688344119</v>
+        <v>25417.24925614087</v>
       </c>
       <c r="S35">
-        <v>0.007894796682467066</v>
+        <v>0.00671253217506854</v>
       </c>
       <c r="T35">
-        <v>0.007894796682467066</v>
+        <v>0.005393880522690632</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H36">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I36">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J36">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>6018.776483291595</v>
+        <v>6475.582260721349</v>
       </c>
       <c r="R36">
-        <v>6018.776483291595</v>
+        <v>38853.49356432809</v>
       </c>
       <c r="S36">
-        <v>0.01159963993648538</v>
+        <v>0.01026095794380108</v>
       </c>
       <c r="T36">
-        <v>0.01159963993648538</v>
+        <v>0.008245231419937474</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H37">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I37">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J37">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>7236.74605242099</v>
+        <v>7442.397394984519</v>
       </c>
       <c r="R37">
-        <v>7236.74605242099</v>
+        <v>29769.58957993807</v>
       </c>
       <c r="S37">
-        <v>0.01394696226930787</v>
+        <v>0.01179293592395567</v>
       </c>
       <c r="T37">
-        <v>0.01394696226930787</v>
+        <v>0.006317505399012718</v>
       </c>
     </row>
   </sheetData>
